--- a/medicine/Sexualité et sexologie/Contes_immoraux/Contes_immoraux.xlsx
+++ b/medicine/Sexualité et sexologie/Contes_immoraux/Contes_immoraux.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Contes immoraux est un film érotique à sketches français réalisé par Walerian Borowczyk et sorti en 1974.  
 Il met en scène le libertinage à travers les époques par le biais de quatre contes érotiques, chacun précédé d'un prologue.
@@ -512,7 +524,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le film commence par une citation des Maximes de La Rochefoucauld : « L'amour, tout agréable qu'il est, plaît encore plus par les manières dont il se montre que par lui-même. »
 Les quatre séquences qui composent le film sont :
@@ -553,7 +567,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve"> Sauf indication contraire ou complémentaire, les informations mentionnées dans cette section peuvent être confirmées par la base de données d'Unifrance.
 Titre original : Contes immoraux
@@ -570,7 +586,7 @@
  Royaume-Uni : Novembre 1973 (BFI London Film Festival)
  France : 28 août 1974
 Classification :
- France : interdit aux moins de 16 ans[1]</t>
+ France : interdit aux moins de 16 ans</t>
         </is>
       </c>
     </row>
@@ -598,7 +614,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Fabrice Luchini : André
 Lise Danvers : Julie
@@ -643,9 +661,11 @@
           <t>Production</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Sur La Marée, le chef opérateur habituel de Borowczyk, Guy Durban, est remplacé au dernier moment par Noël Véry, initialement prévu comme opérateur caméra. C'est à Véry que l'on doit les plans magnifiques sur les falaises et la mer[2]. Borowczyk est tellement satisfait de la qualité de la photo qu'il confie également à Véry — sans en informer Durban — le début d'Erzsébet Báthory. Les images de la campagne y sont superbes. Ce qui fait dire à Olivier Bitoun : « On doit donc à Véry les passages les plus somptueux du film, l'ex-opérateur comprenant parfaitement les desiderata d'un cinéaste qui apporte un soin constant à l'élaboration de ses images[2]. » Durban a plus de mal à se plier aux exigences de Borowczyk. Ulcéré de la façon dont il a été supplanté sur le début d'Erzsebet Bathory, il se brouille définitivement avec le cinéaste[2].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sur La Marée, le chef opérateur habituel de Borowczyk, Guy Durban, est remplacé au dernier moment par Noël Véry, initialement prévu comme opérateur caméra. C'est à Véry que l'on doit les plans magnifiques sur les falaises et la mer. Borowczyk est tellement satisfait de la qualité de la photo qu'il confie également à Véry — sans en informer Durban — le début d'Erzsébet Báthory. Les images de la campagne y sont superbes. Ce qui fait dire à Olivier Bitoun : « On doit donc à Véry les passages les plus somptueux du film, l'ex-opérateur comprenant parfaitement les desiderata d'un cinéaste qui apporte un soin constant à l'élaboration de ses images. » Durban a plus de mal à se plier aux exigences de Borowczyk. Ulcéré de la façon dont il a été supplanté sur le début d'Erzsebet Bathory, il se brouille définitivement avec le cinéaste.
 Mario Ruspoli et son fils Fabrizio Ruspoli sont crédités au générique sous les pseudonymes Jacopo Berenizi et Lorenzo Berinizi.
 </t>
         </is>
@@ -675,7 +695,9 @@
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Prix de l'Âge d'or, 1974</t>
         </is>
